--- a/data/trans_orig/P05A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE588BF3-F5DA-486F-86C5-66BC1F2A22E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69578006-8512-4DE2-9F02-8F73D47E9AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{647DB732-1835-4408-8261-D46764510004}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{187AB5CD-9CEC-45A2-8911-3C2E9FA4AB63}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="474">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,46%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -76,28 +76,28 @@
     <t>85,72%</t>
   </si>
   <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,1176 +136,1170 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
     <t>5,17%</t>
   </si>
   <si>
@@ -1448,9 +1442,6 @@
   </si>
   <si>
     <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
   </si>
   <si>
     <t>5,43%</t>
@@ -1880,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AC3500-B642-4B5C-B73C-941CD727163B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A88C98-1A29-41C3-B6BF-FCAF3F794F2B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2345,10 +2336,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2395,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2416,13 +2407,13 @@
         <v>734276</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>689</v>
@@ -2431,13 +2422,13 @@
         <v>752826</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1369</v>
@@ -2446,13 +2437,13 @@
         <v>1487101</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2458,13 @@
         <v>242635</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -2482,13 +2473,13 @@
         <v>248902</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -2497,13 +2488,13 @@
         <v>491537</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2509,13 @@
         <v>32535</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2533,13 +2524,13 @@
         <v>26330</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -2548,13 +2539,13 @@
         <v>58865</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2613,13 @@
         <v>525414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>488</v>
@@ -2637,13 +2628,13 @@
         <v>539320</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>964</v>
@@ -2652,13 +2643,13 @@
         <v>1064734</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2664,13 @@
         <v>207632</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2688,13 +2679,13 @@
         <v>205474</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -2703,13 +2694,13 @@
         <v>413107</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2715,13 @@
         <v>22678</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2739,13 +2730,13 @@
         <v>27873</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2754,13 +2745,13 @@
         <v>50551</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,7 +2807,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2828,13 +2819,13 @@
         <v>571572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>611</v>
@@ -2843,13 +2834,13 @@
         <v>640328</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1156</v>
@@ -2858,13 +2849,13 @@
         <v>1211900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2870,13 @@
         <v>302468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>331</v>
@@ -2894,13 +2885,13 @@
         <v>347380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>628</v>
@@ -2909,13 +2900,13 @@
         <v>649848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2921,13 @@
         <v>66614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -2945,13 +2936,13 @@
         <v>55023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -2960,13 +2951,13 @@
         <v>121637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3025,13 @@
         <v>2426978</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>2326</v>
@@ -3049,13 +3040,13 @@
         <v>2509543</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>4595</v>
@@ -3064,13 +3055,13 @@
         <v>4936521</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3076,13 @@
         <v>845083</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>843</v>
@@ -3100,13 +3091,13 @@
         <v>909841</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1640</v>
@@ -3115,13 +3106,13 @@
         <v>1754925</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,10 +3127,10 @@
         <v>134146</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>169</v>
@@ -3169,10 +3160,10 @@
         <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3219,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF13E14-56B5-46AE-8475-B744132125F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A9B202-820C-485E-8DAD-B16C2B9C1E8F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3373,13 +3364,13 @@
         <v>106928</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>107</v>
@@ -3388,13 +3379,13 @@
         <v>105795</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>210</v>
@@ -3403,13 +3394,13 @@
         <v>212723</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3415,13 @@
         <v>6860</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3439,13 +3430,13 @@
         <v>7565</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3454,13 +3445,13 @@
         <v>14425</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3466,13 @@
         <v>2758</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3493,10 +3484,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3508,10 +3499,10 @@
         <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3570,13 @@
         <v>497664</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3594,13 +3585,13 @@
         <v>489162</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>960</v>
@@ -3609,13 +3600,13 @@
         <v>986825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3621,13 @@
         <v>50528</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -3645,13 +3636,13 @@
         <v>57237</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
@@ -3660,13 +3651,13 @@
         <v>107765</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3672,13 @@
         <v>3943</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3696,13 +3687,13 @@
         <v>8250</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3711,13 +3702,13 @@
         <v>12192</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3764,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3785,13 +3776,13 @@
         <v>848843</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>807</v>
@@ -3800,13 +3791,13 @@
         <v>861652</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
         <v>1597</v>
@@ -3815,13 +3806,13 @@
         <v>1710496</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3827,13 @@
         <v>154756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -3851,13 +3842,13 @@
         <v>157123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -3866,13 +3857,13 @@
         <v>311879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3878,13 @@
         <v>14646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3902,13 +3893,13 @@
         <v>16192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3917,13 +3908,13 @@
         <v>30838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +3970,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3991,13 +3982,13 @@
         <v>522523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -4006,13 +3997,13 @@
         <v>543131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>990</v>
@@ -4021,13 +4012,13 @@
         <v>1065654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4033,13 @@
         <v>201184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -4057,13 +4048,13 @@
         <v>211365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -4072,13 +4063,13 @@
         <v>412549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4084,13 @@
         <v>32719</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -4108,13 +4099,13 @@
         <v>25028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -4123,13 +4114,13 @@
         <v>57746</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4176,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4197,13 +4188,13 @@
         <v>600177</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>622</v>
@@ -4212,13 +4203,13 @@
         <v>676765</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>1220</v>
@@ -4227,13 +4218,13 @@
         <v>1276942</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4239,13 @@
         <v>269586</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -4263,13 +4254,13 @@
         <v>285157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>532</v>
@@ -4278,13 +4269,13 @@
         <v>554743</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4290,13 @@
         <v>63507</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -4314,13 +4305,13 @@
         <v>69901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -4329,13 +4320,13 @@
         <v>133407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4394,13 @@
         <v>2576134</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>2529</v>
@@ -4418,13 +4409,13 @@
         <v>2676505</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="M24" s="7">
         <v>4977</v>
@@ -4433,13 +4424,13 @@
         <v>5252639</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4445,13 @@
         <v>682913</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>671</v>
@@ -4469,13 +4460,13 @@
         <v>718447</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M25" s="7">
         <v>1325</v>
@@ -4484,13 +4475,13 @@
         <v>1401360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4496,13 @@
         <v>117572</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -4520,13 +4511,13 @@
         <v>119370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>222</v>
@@ -4535,13 +4526,13 @@
         <v>236941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,7 +4588,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4618,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007A1E1-FBF9-490A-A16B-FC40D5879451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D99F0DA-B271-41F2-86F0-F34107CF3A76}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4635,7 +4626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4742,13 +4733,13 @@
         <v>100612</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>239</v>
@@ -4757,13 +4748,13 @@
         <v>126008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>355</v>
@@ -4772,13 +4763,13 @@
         <v>226621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4784,13 @@
         <v>1370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4808,13 +4799,13 @@
         <v>1827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4823,13 +4814,13 @@
         <v>3196</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,10 +4838,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4859,13 +4850,13 @@
         <v>2898</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4874,13 +4865,13 @@
         <v>2898</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4939,13 @@
         <v>524220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>951</v>
@@ -4963,13 +4954,13 @@
         <v>591509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -4978,13 +4969,13 @@
         <v>1115729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4990,13 @@
         <v>22205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -5014,13 +5005,13 @@
         <v>25193</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -5029,13 +5020,13 @@
         <v>47397</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5041,13 @@
         <v>1926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5065,13 +5056,13 @@
         <v>3265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5080,13 +5071,13 @@
         <v>5191</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,7 +5133,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5154,13 +5145,13 @@
         <v>935944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H12" s="7">
         <v>1349</v>
@@ -5169,13 +5160,13 @@
         <v>940150</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>2217</v>
@@ -5184,13 +5175,13 @@
         <v>1876094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5196,13 @@
         <v>65433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -5220,13 +5211,13 @@
         <v>89117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>191</v>
@@ -5235,13 +5226,13 @@
         <v>154550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5247,13 @@
         <v>37046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5271,13 +5262,13 @@
         <v>27900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5286,13 +5277,13 @@
         <v>64946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5360,13 +5351,13 @@
         <v>549029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>818</v>
@@ -5375,13 +5366,13 @@
         <v>692704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
@@ -5390,13 +5381,13 @@
         <v>1241733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5402,13 @@
         <v>134980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -5426,13 +5417,13 @@
         <v>145674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5441,13 +5432,13 @@
         <v>280654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5453,13 @@
         <v>39389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5477,13 +5468,13 @@
         <v>32445</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>419</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -5492,13 +5483,13 @@
         <v>71834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,7 +5545,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5566,13 +5557,13 @@
         <v>699584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>1090</v>
@@ -5581,13 +5572,13 @@
         <v>803162</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1830</v>
@@ -5596,13 +5587,13 @@
         <v>1502746</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5608,13 @@
         <v>189631</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H21" s="7">
         <v>339</v>
@@ -5632,13 +5623,13 @@
         <v>246379</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -5647,13 +5638,13 @@
         <v>436010</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5659,13 @@
         <v>73236</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>126</v>
@@ -5683,13 +5674,13 @@
         <v>96695</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -5698,13 +5689,13 @@
         <v>169931</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5763,13 @@
         <v>2809390</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H24" s="7">
         <v>4447</v>
@@ -5787,13 +5778,13 @@
         <v>3153533</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>7271</v>
@@ -5802,13 +5793,13 @@
         <v>5962922</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5814,13 @@
         <v>413618</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>691</v>
@@ -5838,13 +5829,13 @@
         <v>508189</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>1094</v>
@@ -5853,13 +5844,13 @@
         <v>921807</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5865,13 @@
         <v>151596</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>211</v>
@@ -5889,13 +5880,13 @@
         <v>163204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>347</v>
@@ -5904,13 +5895,13 @@
         <v>314800</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5957,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69578006-8512-4DE2-9F02-8F73D47E9AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2A6852-FBD5-4324-99E5-6C83651923C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{187AB5CD-9CEC-45A2-8911-3C2E9FA4AB63}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1A63B98-17C8-400D-B739-FDD8ED6AD2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>85,72%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,1360 +106,1360 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,65%)</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>10,17%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>5,08%</t>
+    <t>5,02%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A88C98-1A29-41C3-B6BF-FCAF3F794F2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482388BE-770F-4468-9312-DF61F9747090}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2336,10 +2336,10 @@
         <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2407,13 +2407,13 @@
         <v>734276</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>689</v>
@@ -2422,13 +2422,13 @@
         <v>752826</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1369</v>
@@ -2437,13 +2437,13 @@
         <v>1487101</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2458,13 @@
         <v>242635</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -2473,13 +2473,13 @@
         <v>248902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -2488,13 +2488,13 @@
         <v>491537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>32535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2524,13 +2524,13 @@
         <v>26330</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -2539,13 +2539,13 @@
         <v>58865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2613,13 @@
         <v>525414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>488</v>
@@ -2628,13 +2628,13 @@
         <v>539320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>964</v>
@@ -2643,13 +2643,13 @@
         <v>1064734</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2664,13 @@
         <v>207632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2679,13 +2679,13 @@
         <v>205474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -2694,13 +2694,13 @@
         <v>413107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2715,13 @@
         <v>22678</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -2730,13 +2730,13 @@
         <v>27873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2745,13 +2745,13 @@
         <v>50551</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2807,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2819,13 @@
         <v>571572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>611</v>
@@ -2834,13 +2834,13 @@
         <v>640328</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>1156</v>
@@ -2849,13 +2849,13 @@
         <v>1211900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2870,13 @@
         <v>302468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>331</v>
@@ -2885,13 +2885,13 @@
         <v>347380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>628</v>
@@ -2900,13 +2900,13 @@
         <v>649848</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2921,13 @@
         <v>66614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -2936,13 +2936,13 @@
         <v>55023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -2951,13 +2951,13 @@
         <v>121637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3025,13 @@
         <v>2426978</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>2326</v>
@@ -3040,13 +3040,13 @@
         <v>2509543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>4595</v>
@@ -3055,13 +3055,13 @@
         <v>4936521</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3076,13 @@
         <v>845083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>843</v>
@@ -3091,13 +3091,13 @@
         <v>909841</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>1640</v>
@@ -3106,13 +3106,13 @@
         <v>1754925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3127,13 @@
         <v>134146</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -3142,13 +3142,13 @@
         <v>118374</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -3157,13 +3157,13 @@
         <v>252520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3219,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A9B202-820C-485E-8DAD-B16C2B9C1E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67896E-B515-43C0-83C6-9B5789908C74}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3364,13 +3364,13 @@
         <v>106928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>107</v>
@@ -3379,13 +3379,13 @@
         <v>105795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>210</v>
@@ -3394,13 +3394,13 @@
         <v>212723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3415,13 @@
         <v>6860</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3430,13 +3430,13 @@
         <v>7565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3445,13 +3445,13 @@
         <v>14425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3466,13 @@
         <v>2758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -3499,10 +3499,10 @@
         <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3570,13 @@
         <v>497664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>480</v>
@@ -3585,13 +3585,13 @@
         <v>489162</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>960</v>
@@ -3600,13 +3600,13 @@
         <v>986825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3621,13 @@
         <v>50528</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>58</v>
@@ -3636,13 +3636,13 @@
         <v>57237</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>107</v>
@@ -3651,13 +3651,13 @@
         <v>107765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3672,7 @@
         <v>3943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>220</v>
@@ -3693,7 +3693,7 @@
         <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3702,13 +3702,13 @@
         <v>12192</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3764,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3776,13 +3776,13 @@
         <v>848843</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H12" s="7">
         <v>807</v>
@@ -3791,13 +3791,13 @@
         <v>861652</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M12" s="7">
         <v>1597</v>
@@ -3896,10 +3896,10 @@
         <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -3914,7 +3914,7 @@
         <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,7 +3970,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3982,13 +3982,13 @@
         <v>522523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>513</v>
@@ -3997,13 +3997,13 @@
         <v>543131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>990</v>
@@ -4012,13 +4012,13 @@
         <v>1065654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,10 +4033,10 @@
         <v>201184</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>263</v>
@@ -4087,7 +4087,7 @@
         <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>271</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4293,10 +4293,10 @@
         <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -4305,13 +4305,13 @@
         <v>69901</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>124</v>
@@ -4320,13 +4320,13 @@
         <v>133407</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4394,13 @@
         <v>2576134</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>2529</v>
@@ -4409,13 +4409,13 @@
         <v>2676505</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M24" s="7">
         <v>4977</v>
@@ -4481,7 +4481,7 @@
         <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4496,13 @@
         <v>117572</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -4511,13 +4511,13 @@
         <v>119370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>222</v>
@@ -4526,13 +4526,13 @@
         <v>236941</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,7 +4588,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D99F0DA-B271-41F2-86F0-F34107CF3A76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4960C-0C28-498B-A620-0B4356765C49}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4626,7 +4626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4733,13 +4733,13 @@
         <v>100612</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>239</v>
@@ -4748,13 +4748,13 @@
         <v>126008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>355</v>
@@ -4763,13 +4763,13 @@
         <v>226621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4784,13 @@
         <v>1370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4799,13 +4799,13 @@
         <v>1827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4814,13 +4814,13 @@
         <v>3196</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,10 +4838,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4850,13 +4850,13 @@
         <v>2898</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4865,13 +4865,13 @@
         <v>2898</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4939,13 @@
         <v>524220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>951</v>
@@ -4954,13 +4954,13 @@
         <v>591509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>1537</v>
@@ -4969,13 +4969,13 @@
         <v>1115729</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4990,13 @@
         <v>22205</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -5005,13 +5005,13 @@
         <v>25193</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
@@ -5020,13 +5020,13 @@
         <v>47397</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5041,13 @@
         <v>1926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5056,13 +5056,13 @@
         <v>3265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5074,10 +5074,10 @@
         <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5133,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5145,13 +5145,13 @@
         <v>935944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H12" s="7">
         <v>1349</v>
@@ -5160,13 +5160,13 @@
         <v>940150</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>2217</v>
@@ -5175,13 +5175,13 @@
         <v>1876094</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,10 +5196,10 @@
         <v>65433</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>385</v>
@@ -5250,10 +5250,10 @@
         <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -5265,10 +5265,10 @@
         <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -5277,13 +5277,13 @@
         <v>64946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5351,13 +5351,13 @@
         <v>549029</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>818</v>
@@ -5366,13 +5366,13 @@
         <v>692704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
@@ -5381,13 +5381,13 @@
         <v>1241733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5402,13 @@
         <v>134980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -5417,13 +5417,13 @@
         <v>145674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>306</v>
@@ -5432,13 +5432,13 @@
         <v>280654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5453,13 @@
         <v>39389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5468,13 +5468,13 @@
         <v>32445</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>419</v>
+        <v>198</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -5483,13 +5483,13 @@
         <v>71834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5557,13 +5557,13 @@
         <v>699584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>1090</v>
@@ -5572,13 +5572,13 @@
         <v>803162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1830</v>
@@ -5587,13 +5587,13 @@
         <v>1502746</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5608,13 @@
         <v>189631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H21" s="7">
         <v>339</v>
@@ -5623,10 +5623,10 @@
         <v>246379</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>437</v>
@@ -5737,7 +5737,7 @@
         <v>2557</v>
       </c>
       <c r="N23" s="7">
-        <v>2108686</v>
+        <v>2108687</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5763,7 +5763,7 @@
         <v>2809390</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>450</v>
@@ -5790,7 +5790,7 @@
         <v>7271</v>
       </c>
       <c r="N24" s="7">
-        <v>5962922</v>
+        <v>5962923</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>455</v>
@@ -5865,10 +5865,10 @@
         <v>151596</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>468</v>
@@ -5883,7 +5883,7 @@
         <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>470</v>
@@ -5943,7 +5943,7 @@
         <v>8712</v>
       </c>
       <c r="N27" s="7">
-        <v>7199529</v>
+        <v>7199530</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
